--- a/Google/Google Data Analytics Professional Certificate/3. Prepare Data for Exploration/Week 3/Extra, Data analysis cases in spreadsheets/SalesByFlavor.xlsx
+++ b/Google/Google Data Analytics Professional Certificate/3. Prepare Data for Exploration/Week 3/Extra, Data analysis cases in spreadsheets/SalesByFlavor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertovelasquezdean/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertovelasquezdean/Desktop/Rescata_/Programación/Google/Google Data Analytics Professional Certificate/3. Prepare Data for Exploration/Week 3/Extra, Data analysis cases in spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="15">
   <si>
     <t>strawberry</t>
   </si>
@@ -118,12 +118,15 @@
       <t>, so we could create a business plan to promote this one more on sale days.</t>
     </r>
   </si>
+  <si>
+    <t>Workshop; Before you begin an analysis, it’s important to inspect your data to determine if it contains the specific information you need to answer your stakeholders’ questions</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,6 +170,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -189,18 +199,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -274,7 +285,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>flavors!$J$3</c:f>
+              <c:f>flavors!$J$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -403,7 +414,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>flavors!$I$4:$I$7</c:f>
+              <c:f>flavors!$I$7:$I$10</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -423,7 +434,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flavors!$J$4:$J$7</c:f>
+              <c:f>flavors!$J$7:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -587,7 +598,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>flavors!$K$3</c:f>
+              <c:f>flavors!$K$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -716,7 +727,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>flavors!$I$4:$I$7</c:f>
+              <c:f>flavors!$I$7:$I$10</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -736,7 +747,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flavors!$K$4:$K$7</c:f>
+              <c:f>flavors!$K$7:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1969,13 +1980,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1999,13 +2010,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2328,7 +2339,7 @@
   <dimension ref="A1:U209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2336,6 +2347,7 @@
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -2348,8 +2360,8 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
+      <c r="E1" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -2373,24 +2385,8 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15</v>
       </c>
@@ -2400,23 +2396,8 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <f>SUMIF(C2:C209,F4,B2:B209)</f>
-        <v>460</v>
-      </c>
-      <c r="I4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f>SUMIF($C$2:$C$209,I4,$B$2:$B$209)</f>
-        <v>399</v>
-      </c>
-      <c r="K4" s="3">
-        <f>J4/J$8</f>
-        <v>0.19009051929490234</v>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -2429,17 +2410,6 @@
       <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <f>SUMIF($C$2:$C$209,I5,$B$2:$B$209)</f>
-        <v>460</v>
-      </c>
-      <c r="K5" s="3">
-        <f>J5/J$8</f>
-        <v>0.2191519771319676</v>
-      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -2451,16 +2421,21 @@
       <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="I6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <f>SUMIF($C$2:$C$209,I6,$B$2:$B$209)</f>
-        <v>713</v>
-      </c>
-      <c r="K6" s="3">
-        <f>J6/J$8</f>
-        <v>0.33968556455454979</v>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -2473,16 +2448,23 @@
       <c r="C7" t="s">
         <v>1</v>
       </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <f>SUMIF(C2:C209,F7,B2:B209)</f>
+        <v>460</v>
+      </c>
       <c r="I7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <f>SUMIF($C$2:$C$209,I7,$B$2:$B$209)</f>
-        <v>527</v>
+        <v>399</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" ref="K5:K7" si="0">J7/J$8</f>
-        <v>0.25107193901858027</v>
+        <f>J7/J$11</f>
+        <v>0.19009051929490234</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -2495,9 +2477,16 @@
       <c r="C8" t="s">
         <v>1</v>
       </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
       <c r="J8">
-        <f>SUM(J4:J7)</f>
-        <v>2099</v>
+        <f>SUMIF($C$2:$C$209,I8,$B$2:$B$209)</f>
+        <v>460</v>
+      </c>
+      <c r="K8" s="3">
+        <f>J8/J$11</f>
+        <v>0.2191519771319676</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -2510,6 +2499,17 @@
       <c r="C9" t="s">
         <v>3</v>
       </c>
+      <c r="I9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <f>SUMIF($C$2:$C$209,I9,$B$2:$B$209)</f>
+        <v>713</v>
+      </c>
+      <c r="K9" s="3">
+        <f>J9/J$11</f>
+        <v>0.33968556455454979</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -2521,6 +2521,17 @@
       <c r="C10" t="s">
         <v>2</v>
       </c>
+      <c r="I10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <f>SUMIF($C$2:$C$209,I10,$B$2:$B$209)</f>
+        <v>527</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" ref="K10" si="0">J10/J$11</f>
+        <v>0.25107193901858027</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -2532,6 +2543,10 @@
       <c r="C11" t="s">
         <v>1</v>
       </c>
+      <c r="J11">
+        <f>SUM(J7:J10)</f>
+        <v>2099</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -2709,7 +2724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>47</v>
       </c>
@@ -2719,27 +2734,9 @@
       <c r="C28" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
     </row>
     <row r="29" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
@@ -2751,22 +2748,9 @@
       <c r="C29" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30">
@@ -2779,7 +2763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>16</v>
       </c>
@@ -2789,6 +2773,24 @@
       <c r="C31" t="s">
         <v>0</v>
       </c>
+      <c r="E31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32">
@@ -2800,6 +2802,19 @@
       <c r="C32" t="s">
         <v>2</v>
       </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
@@ -4758,9 +4773,9 @@
     <sortCondition ref="A2:A209"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="F28:R29"/>
+    <mergeCell ref="F31:R32"/>
   </mergeCells>
-  <conditionalFormatting sqref="J4:J7">
+  <conditionalFormatting sqref="J7:J10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4782,7 +4797,7 @@
           <x14:formula1>
             <xm:f>Hoja1!$B$3:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F4</xm:sqref>
+          <xm:sqref>F7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
